--- a/datasets/20161003 pJP22mcherry 02.xlsx
+++ b/datasets/20161003 pJP22mcherry 02.xlsx
@@ -1,18 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thmosqueiro/Desktop/igem2017/modeliGEM2016/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="final" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -620,7 +633,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,60 +684,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -754,7 +713,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -821,12 +780,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -856,12 +815,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1071,9 +1030,9 @@
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1067,7 @@
         <v>42470</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1140,12 +1099,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1163,7 +1122,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1142,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1203,12 +1162,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1227,7 +1186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1260,7 +1219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1271,7 +1230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1279,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1290,7 +1249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1301,7 +1260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1312,7 +1271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1323,7 +1282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1331,12 +1290,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -1377,7 +1336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -1418,7 +1377,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
@@ -1459,7 +1418,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1500,7 +1459,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
@@ -1541,7 +1500,7 @@
         <v>3913</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
@@ -1582,7 +1541,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
@@ -1623,7 +1582,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
@@ -1664,7 +1623,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -1705,7 +1664,7 @@
         <v>15222</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1713,7 +1672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>81</v>
       </c>
@@ -1731,7 +1690,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>83</v>
       </c>
@@ -1749,7 +1708,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>81</v>
       </c>
@@ -1767,12 +1726,12 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +1739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -1802,7 +1761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1813,7 +1772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -1824,7 +1783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1835,7 +1794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -1843,7 +1802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +1813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -1865,7 +1824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -1876,7 +1835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -1895,12 +1854,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>44</v>
       </c>
@@ -1941,7 +1900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>45</v>
       </c>
@@ -1982,7 +1941,7 @@
         <v>18959</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>46</v>
       </c>
@@ -2023,7 +1982,7 @@
         <v>11076</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>47</v>
       </c>
@@ -2064,7 +2023,7 @@
         <v>19756</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>48</v>
       </c>
@@ -2105,7 +2064,7 @@
         <v>16121</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -2146,7 +2105,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>50</v>
       </c>
@@ -2187,7 +2146,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>51</v>
       </c>
@@ -2228,7 +2187,7 @@
         <v>21970</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>52</v>
       </c>
@@ -2269,7 +2228,7 @@
         <v>18878</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -2277,7 +2236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>81</v>
       </c>
@@ -2295,7 +2254,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>83</v>
       </c>
@@ -2313,7 +2272,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>81</v>
       </c>
@@ -2331,12 +2290,12 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -2344,7 +2303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>63</v>
       </c>
@@ -2366,7 +2325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -2374,7 +2333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -2385,7 +2344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -2393,12 +2352,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>44</v>
       </c>
@@ -2439,7 +2398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>45</v>
       </c>
@@ -2456,7 +2415,7 @@
         <v>0.11330000311136246</v>
       </c>
       <c r="F106">
-        <v>0.24860000610351563</v>
+        <v>0.24860000610351562</v>
       </c>
       <c r="G106">
         <v>0.24060000479221344</v>
@@ -2480,7 +2439,7 @@
         <v>9.9699996411800385E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>46</v>
       </c>
@@ -2521,7 +2480,7 @@
         <v>0.19359999895095825</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>47</v>
       </c>
@@ -2562,7 +2521,7 @@
         <v>8.7499998509883881E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>48</v>
       </c>
@@ -2603,7 +2562,7 @@
         <v>0.12380000203847885</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>49</v>
       </c>
@@ -2644,7 +2603,7 @@
         <v>0.2840999960899353</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2644,7 @@
         <v>0.21340000629425049</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>51</v>
       </c>
@@ -2726,7 +2685,7 @@
         <v>0.1103999987244606</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>52</v>
       </c>
@@ -2767,7 +2726,7 @@
         <v>0.11800000071525574</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>53</v>
       </c>
@@ -2775,7 +2734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>81</v>
       </c>
@@ -2793,7 +2752,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>83</v>
       </c>
@@ -2811,7 +2770,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>81</v>
       </c>
@@ -2829,12 +2788,12 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -2842,7 +2801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -2853,7 +2812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -2864,7 +2823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -2875,7 +2834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -2886,7 +2845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -2897,7 +2856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -2905,7 +2864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -2916,7 +2875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -2927,7 +2886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -2938,7 +2897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -2949,7 +2908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -2957,12 +2916,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>44</v>
       </c>
@@ -3003,7 +2962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>45</v>
       </c>
@@ -3044,7 +3003,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>46</v>
       </c>
@@ -3085,7 +3044,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>47</v>
       </c>
@@ -3126,7 +3085,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>48</v>
       </c>
@@ -3167,7 +3126,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>49</v>
       </c>
@@ -3208,7 +3167,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>50</v>
       </c>
@@ -3249,7 +3208,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>51</v>
       </c>
@@ -3290,7 +3249,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>52</v>
       </c>
@@ -3331,7 +3290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -3365,9 +3324,9 @@
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3386,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3394,7 +3353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3402,7 +3361,7 @@
         <v>42470</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3410,7 +3369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3418,7 +3377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +3385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3434,12 +3393,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -3457,7 +3416,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -3477,7 +3436,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -3497,12 +3456,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3510,7 +3469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3521,7 +3480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -3532,7 +3491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3543,7 +3502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3554,7 +3513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3565,7 +3524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3573,7 +3532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3584,7 +3543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3595,7 +3554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3606,7 +3565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3617,7 +3576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3625,12 +3584,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -3671,7 +3630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -3712,7 +3671,7 @@
         <v>7882</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
@@ -3753,7 +3712,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -3794,7 +3753,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
@@ -3835,7 +3794,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
@@ -3876,7 +3835,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
@@ -3917,7 +3876,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
@@ -3958,7 +3917,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -3999,7 +3958,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4007,12 +3966,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -4020,7 +3979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -4031,7 +3990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -4042,7 +4001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -4053,7 +4012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -4064,7 +4023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -4083,7 +4042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -4094,7 +4053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -4105,7 +4064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -4116,7 +4075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -4127,7 +4086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -4135,12 +4094,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>44</v>
       </c>
@@ -4181,7 +4140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>45</v>
       </c>
@@ -4222,7 +4181,7 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>46</v>
       </c>
@@ -4263,7 +4222,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>47</v>
       </c>
@@ -4304,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>48</v>
       </c>
@@ -4345,7 +4304,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -4386,7 +4345,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>50</v>
       </c>
@@ -4427,7 +4386,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>51</v>
       </c>
@@ -4468,7 +4427,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>52</v>
       </c>
@@ -4509,7 +4468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -4531,9 +4490,9 @@
       <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4541,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4552,7 +4511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4568,7 +4527,7 @@
         <v>42470</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4576,7 +4535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4584,7 +4543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4592,7 +4551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4600,12 +4559,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -4623,7 +4582,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -4643,7 +4602,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -4663,12 +4622,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4676,7 +4635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4687,7 +4646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4698,7 +4657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -4709,7 +4668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -4720,7 +4679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4731,7 +4690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4739,7 +4698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4750,7 +4709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4761,7 +4720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -4772,7 +4731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4783,7 +4742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4791,12 +4750,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -4837,7 +4796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -4878,7 +4837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
@@ -4919,7 +4878,7 @@
         <v>14525</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -4960,7 +4919,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
@@ -5001,7 +4960,7 @@
         <v>31235</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
@@ -5042,7 +5001,7 @@
         <v>29818</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
@@ -5083,7 +5042,7 @@
         <v>4815</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
@@ -5124,7 +5083,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -5165,7 +5124,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -5173,12 +5132,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -5186,7 +5145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -5197,7 +5156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -5208,7 +5167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -5219,7 +5178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -5230,7 +5189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -5241,7 +5200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -5249,7 +5208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -5260,7 +5219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -5271,7 +5230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -5282,7 +5241,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -5293,7 +5252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -5301,12 +5260,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>44</v>
       </c>
@@ -5347,7 +5306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>45</v>
       </c>
@@ -5388,7 +5347,7 @@
         <v>27813</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>46</v>
       </c>
@@ -5429,7 +5388,7 @@
         <v>9554</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>47</v>
       </c>
@@ -5470,7 +5429,7 @@
         <v>7231</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>48</v>
       </c>
@@ -5511,7 +5470,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -5552,7 +5511,7 @@
         <v>4922</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>50</v>
       </c>
@@ -5593,7 +5552,7 @@
         <v>8055</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>51</v>
       </c>
@@ -5634,7 +5593,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>52</v>
       </c>
@@ -5675,7 +5634,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -5683,12 +5642,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -5696,7 +5655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -5707,7 +5666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>63</v>
       </c>
@@ -5718,7 +5677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -5726,7 +5685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -5737,7 +5696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -5745,12 +5704,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>44</v>
       </c>
@@ -5791,7 +5750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>45</v>
       </c>
@@ -5832,7 +5791,7 @@
         <v>0.20170000195503235</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>46</v>
       </c>
@@ -5873,7 +5832,7 @@
         <v>8.789999783039093E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>47</v>
       </c>
@@ -5914,7 +5873,7 @@
         <v>4.3900001794099808E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>48</v>
       </c>
@@ -5955,7 +5914,7 @@
         <v>0.5275999903678894</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>49</v>
       </c>
@@ -5996,7 +5955,7 @@
         <v>0.49729999899864197</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>50</v>
       </c>
@@ -6037,7 +5996,7 @@
         <v>0.14669999480247498</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>51</v>
       </c>
@@ -6078,7 +6037,7 @@
         <v>0.15049999952316284</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>52</v>
       </c>
@@ -6119,7 +6078,7 @@
         <v>4.4500000774860382E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>53</v>
       </c>
@@ -6127,12 +6086,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -6140,7 +6099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -6151,7 +6110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -6162,7 +6121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -6173,7 +6132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -6184,7 +6143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -6195,7 +6154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -6203,7 +6162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>34</v>
       </c>
@@ -6214,7 +6173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -6225,7 +6184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -6236,7 +6195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -6247,7 +6206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -6255,12 +6214,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>44</v>
       </c>
@@ -6301,7 +6260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>45</v>
       </c>
@@ -6342,7 +6301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>46</v>
       </c>
@@ -6383,7 +6342,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>47</v>
       </c>
@@ -6424,7 +6383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>48</v>
       </c>
@@ -6465,7 +6424,7 @@
         <v>10361</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>49</v>
       </c>
@@ -6506,7 +6465,7 @@
         <v>10967</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>50</v>
       </c>
@@ -6547,7 +6506,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>51</v>
       </c>
@@ -6588,7 +6547,7 @@
         <v>10341</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>52</v>
       </c>
@@ -6629,7 +6588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>53</v>
       </c>
@@ -6649,7 +6608,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
